--- a/output/fit_clients/fit_round_349.xlsx
+++ b/output/fit_clients/fit_round_349.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2237229761.557677</v>
+        <v>1816476010.983552</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07433881915092896</v>
+        <v>0.09339042424716588</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04427468925775223</v>
+        <v>0.04002864684578806</v>
       </c>
       <c r="H2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
         <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1118614908.330302</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2013937985.027313</v>
+        <v>2305015202.032818</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1500799222773291</v>
+        <v>0.1182326339968907</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04611519628152475</v>
+        <v>0.03319148826269908</v>
       </c>
       <c r="H3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1006969034.744916</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -564,22 +542,16 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3634939089.019415</v>
+        <v>3998868035.368721</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1396692253969128</v>
+        <v>0.1163530366002483</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02351470684364607</v>
+        <v>0.02621304619442693</v>
       </c>
       <c r="H4" t="b">
         <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>126</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1817469532.830259</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4226120084.042697</v>
+        <v>3017668549.037019</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07158108251112816</v>
+        <v>0.09825900103059565</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04380387719849883</v>
+        <v>0.04876386493239785</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>131</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2113060030.795163</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2654070457.198906</v>
+        <v>1743832919.560439</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1095151765733427</v>
+        <v>0.1009739850469304</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05120745407478633</v>
+        <v>0.04601645745716876</v>
       </c>
       <c r="H6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>65</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1327035187.414865</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -666,22 +626,16 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2168671451.816854</v>
+        <v>2200489680.564767</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08645769243295449</v>
+        <v>0.07303030168473872</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03789736667356523</v>
+        <v>0.04783834708503678</v>
       </c>
       <c r="H7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>110</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1084335770.843571</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -700,22 +654,16 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3441464910.257007</v>
+        <v>3603431848.590542</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2136357582030199</v>
+        <v>0.1631986063455415</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02907504795225219</v>
+        <v>0.02597095134315199</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>112</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1720732557.783451</v>
       </c>
     </row>
     <row r="9">
@@ -734,22 +682,16 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2203711586.607638</v>
+        <v>1784413471.559178</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1714270913003902</v>
+        <v>0.1786218338396111</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02856666441935421</v>
+        <v>0.02690437313151391</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1101855791.665252</v>
       </c>
     </row>
     <row r="10">
@@ -768,22 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5518088132.099965</v>
+        <v>4772294492.056288</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1798326690904685</v>
+        <v>0.1658155570834318</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04765999121188324</v>
+        <v>0.05427070257025316</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>147</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2759044205.517848</v>
       </c>
     </row>
     <row r="11">
@@ -802,22 +738,16 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4266304524.384936</v>
+        <v>3062589771.477581</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1745130494317483</v>
+        <v>0.1498446761764751</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03341202972477735</v>
+        <v>0.04344904376615744</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>144</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2133152293.416618</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -836,22 +766,16 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2769212312.535165</v>
+        <v>2509928282.97561</v>
       </c>
       <c r="F12" t="n">
-        <v>0.18791314694821</v>
+        <v>0.166573643270734</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05326125572254153</v>
+        <v>0.03468621598656103</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>119</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1384606153.168811</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -870,22 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4031929188.376956</v>
+        <v>5026987300.511642</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08597084876867989</v>
+        <v>0.08077927089046646</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02707114102728072</v>
+        <v>0.02675235874166096</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>117</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2015964647.503978</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3341874055.751724</v>
+        <v>2587043836.084055</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1584094057276971</v>
+        <v>0.1368712949134598</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0305187073214338</v>
+        <v>0.02837777395901715</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>111</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1670937037.567858</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1275432378.923395</v>
+        <v>1735240946.126478</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09591173837571652</v>
+        <v>0.1075851710192421</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04466902191579241</v>
+        <v>0.0410296043094158</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>637716224.0565882</v>
       </c>
     </row>
     <row r="16">
@@ -972,22 +878,16 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2052545273.927264</v>
+        <v>2507237820.737687</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1147349849068119</v>
+        <v>0.09558525557955468</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03766471225648186</v>
+        <v>0.04550472896166612</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>70</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1026272707.76111</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3912409736.593794</v>
+        <v>3941631074.024229</v>
       </c>
       <c r="F17" t="n">
-        <v>0.155127523870417</v>
+        <v>0.1695845937825866</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04292073780574542</v>
+        <v>0.05161389330473743</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>103</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1956204907.189243</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -1040,22 +934,16 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2670421609.437644</v>
+        <v>3565937715.023095</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1476585864271102</v>
+        <v>0.1638004758839587</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02380691574141884</v>
+        <v>0.02197148236037406</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>115</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1335210858.827772</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1274192386.746779</v>
+        <v>1361501142.367084</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1298777506983212</v>
+        <v>0.1224685549260904</v>
       </c>
       <c r="G19" t="n">
-        <v>0.020977470047728</v>
+        <v>0.01685377663814946</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>637096289.3458511</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2564950258.724912</v>
+        <v>2039258187.451631</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1111810509045931</v>
+        <v>0.09771259870949058</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03073017379058771</v>
+        <v>0.02927150728549412</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>45</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1282475095.549987</v>
       </c>
     </row>
     <row r="21">
@@ -1142,22 +1018,16 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2074858985.479752</v>
+        <v>2213154616.680593</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07832549732924891</v>
+        <v>0.08528873916677381</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04032333086356074</v>
+        <v>0.03654808843579141</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>29</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1037429521.53921</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2684401969.437369</v>
+        <v>4004638447.148271</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1247925075754546</v>
+        <v>0.1076362808768066</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04743883865565489</v>
+        <v>0.03846718730195828</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>97</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1342201065.158929</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1147765720.928079</v>
+        <v>1025650306.730728</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1468770434685815</v>
+        <v>0.1742229627555497</v>
       </c>
       <c r="G23" t="n">
-        <v>0.048264418120447</v>
+        <v>0.04495841691225154</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>573882905.7781456</v>
       </c>
     </row>
     <row r="24">
@@ -1244,22 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3473189953.093991</v>
+        <v>3793560412.059523</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09595043451970219</v>
+        <v>0.147164869335284</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0317082403459028</v>
+        <v>0.02667787874484694</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>102</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1736594979.975155</v>
       </c>
     </row>
     <row r="25">
@@ -1278,22 +1130,16 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1242505421.498536</v>
+        <v>1391969171.744447</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08391878193483891</v>
+        <v>0.1190306696344477</v>
       </c>
       <c r="G25" t="n">
-        <v>0.03054696363120036</v>
+        <v>0.02303000945873534</v>
       </c>
       <c r="H25" t="b">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>621252718.9446458</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>942368289.2214439</v>
+        <v>891599921.6665176</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1079017558397087</v>
+        <v>0.09941297755684717</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02394783580599654</v>
+        <v>0.034804848093114</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>471184102.5691265</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3225594363.932762</v>
+        <v>4250379532.342526</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1375485185171086</v>
+        <v>0.1038247119613104</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02347448673462503</v>
+        <v>0.02031040151946167</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>84</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1612797230.579947</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2758896616.232192</v>
+        <v>3713438331.38839</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1126636858741926</v>
+        <v>0.1108675740840139</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04816023643438477</v>
+        <v>0.0426441204815916</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>115</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1379448298.409795</v>
       </c>
     </row>
     <row r="29">
@@ -1414,22 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4870973442.804776</v>
+        <v>4421673653.079108</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1226194344910996</v>
+        <v>0.1287633925914147</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03022109573399296</v>
+        <v>0.03114355849483436</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>154</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2435486677.959239</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1902424794.940861</v>
+        <v>1781684021.907002</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1166639869364477</v>
+        <v>0.1263709235750342</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02685544112698564</v>
+        <v>0.03765466827041068</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>951212423.7993562</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1247904672.919392</v>
+        <v>921606119.2851967</v>
       </c>
       <c r="F31" t="n">
-        <v>0.097794027383279</v>
+        <v>0.1006433511353881</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04023360519244452</v>
+        <v>0.04181975223361156</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>623952276.6557971</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1666309938.454292</v>
+        <v>1328760954.601403</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1002850252219173</v>
+        <v>0.07964266157955556</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02346852268431356</v>
+        <v>0.03018329473791971</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>833155072.0125575</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2932760193.397294</v>
+        <v>3065090347.304573</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1906095935998774</v>
+        <v>0.1907189414225894</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05892107212774263</v>
+        <v>0.04074298927739399</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>106</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1466380098.06368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1053291108.426181</v>
+        <v>1205941010.517323</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1028138425130788</v>
+        <v>0.09110930575197744</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02344588266320762</v>
+        <v>0.02294104485195789</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>526645583.3775375</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1277859499.288208</v>
+        <v>850484851.8454297</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1174936039136587</v>
+        <v>0.1064582832871023</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03791817463490123</v>
+        <v>0.02843291704975678</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>638929707.3060017</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2808423858.424886</v>
+        <v>2303280712.420378</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1562940901305744</v>
+        <v>0.1311860204227899</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02492293481125574</v>
+        <v>0.0253276042465127</v>
       </c>
       <c r="H36" t="b">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>88</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1404211926.463591</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2059058807.812541</v>
+        <v>2829137679.559144</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1095160041131837</v>
+        <v>0.08600329323542422</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0360990913521244</v>
+        <v>0.0259393723846012</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>91</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1029529439.32761</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1431528637.736453</v>
+        <v>2185021738.049524</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1087606426920234</v>
+        <v>0.1116501979433644</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02917301293211784</v>
+        <v>0.03168328577014808</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>715764377.804533</v>
       </c>
     </row>
     <row r="39">
@@ -1754,22 +1522,16 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1989405965.461959</v>
+        <v>1784130508.827075</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1737178450848522</v>
+        <v>0.1357777122720122</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03095992089570457</v>
+        <v>0.02575242541039106</v>
       </c>
       <c r="H39" t="b">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>994702978.8782576</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1274997299.430406</v>
+        <v>1376952602.146801</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1059898557075224</v>
+        <v>0.1623631519904347</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04870212487856808</v>
+        <v>0.05599041191181819</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>637498672.2302752</v>
       </c>
     </row>
     <row r="41">
@@ -1822,22 +1578,16 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2378508690.837277</v>
+        <v>2217472873.523987</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1111304464520726</v>
+        <v>0.1581107825478683</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04039460263106904</v>
+        <v>0.03942848909101012</v>
       </c>
       <c r="H41" t="b">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>88</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1189254382.566226</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3768724674.019537</v>
+        <v>3941892008.18863</v>
       </c>
       <c r="F42" t="n">
-        <v>0.118743018802697</v>
+        <v>0.08226234790638531</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03261418227111274</v>
+        <v>0.04394647647445915</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>116</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1884362350.396585</v>
       </c>
     </row>
     <row r="43">
@@ -1890,22 +1634,16 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2326530776.823308</v>
+        <v>2479877263.18827</v>
       </c>
       <c r="F43" t="n">
-        <v>0.153322399142009</v>
+        <v>0.1910702072113784</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02217151942318939</v>
+        <v>0.0245841638766924</v>
       </c>
       <c r="H43" t="b">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>125</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1163265454.534144</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1718827763.867503</v>
+        <v>2327812963.828846</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06877709176064602</v>
+        <v>0.08285626750881055</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03101687812641508</v>
+        <v>0.03130130693183757</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>859413932.1731168</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1698079273.074626</v>
+        <v>1839616809.204978</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1904508460654251</v>
+        <v>0.1834552239814166</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04805035342651907</v>
+        <v>0.03642328207380004</v>
       </c>
       <c r="H45" t="b">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>849039596.9573599</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -1992,22 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4481471115.33686</v>
+        <v>3446455311.355529</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1090533327809523</v>
+        <v>0.1759824704103181</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05513192620730843</v>
+        <v>0.05634405001409248</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>125</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2240735554.771926</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4734864198.460916</v>
+        <v>3274081651.681099</v>
       </c>
       <c r="F47" t="n">
-        <v>0.2030991648484317</v>
+        <v>0.1604681400720489</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05656447760420991</v>
+        <v>0.04004380066693624</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>94</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2367432140.052753</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4676011037.765166</v>
+        <v>4181473846.033378</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09513443620223591</v>
+        <v>0.07134684872908852</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03273997703609065</v>
+        <v>0.02523910878115396</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>114</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2338005513.949842</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1229325968.966959</v>
+        <v>1225680227.450042</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1506339786448226</v>
+        <v>0.1900151874235097</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03119082781816258</v>
+        <v>0.03750664833859171</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>614663058.5971395</v>
       </c>
     </row>
     <row r="50">
@@ -2128,22 +1830,16 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3059221364.876078</v>
+        <v>3125273390.952756</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1181650909808024</v>
+        <v>0.1118216038796582</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0416062518227814</v>
+        <v>0.03954683529882232</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>119</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1529610738.083212</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1366535169.507081</v>
+        <v>1504118745.41456</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1736944693776561</v>
+        <v>0.1193438032426338</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03831723750075636</v>
+        <v>0.05078024720369851</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>683267609.314568</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3548644485.123161</v>
+        <v>3546885078.741362</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1252894005511888</v>
+        <v>0.09279846310214289</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04342311209028502</v>
+        <v>0.04887366811679104</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>144</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1774322325.610319</v>
       </c>
     </row>
     <row r="53">
@@ -2230,22 +1914,16 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2553636464.279851</v>
+        <v>3353926775.974868</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1287209771987072</v>
+        <v>0.142961961438776</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02698193980479382</v>
+        <v>0.02335871407984009</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>100</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1276818295.420479</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4483027831.685094</v>
+        <v>3811677945.952372</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1658624526485278</v>
+        <v>0.1601481675875196</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04152234358371042</v>
+        <v>0.04332027275481631</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>113</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2241514017.861742</v>
       </c>
     </row>
     <row r="55">
@@ -2298,22 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3713716925.965349</v>
+        <v>4146275616.681854</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1924360315935065</v>
+        <v>0.2151454020272504</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02377086745581258</v>
+        <v>0.02714389171024741</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>91</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1856858425.254321</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1563738344.688677</v>
+        <v>1808640525.67419</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1536269029297124</v>
+        <v>0.1441958961577929</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03723334166554339</v>
+        <v>0.03852908244130251</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>781869205.1387625</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3435594298.173534</v>
+        <v>3555416742.306764</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1473089437437148</v>
+        <v>0.1487507323860616</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02377633574310778</v>
+        <v>0.02272526461260587</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>111</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1717797190.073242</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1237076654.184958</v>
+        <v>1392255403.90892</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1657535862150408</v>
+        <v>0.1357379241973933</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03950446995803751</v>
+        <v>0.02638094820913265</v>
       </c>
       <c r="H58" t="b">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>618538382.2419299</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -2434,22 +2082,16 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5149420415.909133</v>
+        <v>3760739487.494063</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1039924000767586</v>
+        <v>0.09525817087734299</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03087621708062</v>
+        <v>0.04971807672964725</v>
       </c>
       <c r="H59" t="b">
         <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>97</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2574710128.470617</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2928010265.109466</v>
+        <v>3733763923.381934</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1630917088624119</v>
+        <v>0.2023229966717689</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02015358235366216</v>
+        <v>0.02100151532910347</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>109</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1464005195.362407</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2633945421.097675</v>
+        <v>2108425619.326977</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1460667337644203</v>
+        <v>0.1306964948098326</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02464156059755847</v>
+        <v>0.02937264553045268</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>121</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1316972725.540352</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1537030768.776119</v>
+        <v>1293415210.406063</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1238194910762372</v>
+        <v>0.1222518043791411</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03809415531551121</v>
+        <v>0.03656186631739473</v>
       </c>
       <c r="H62" t="b">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>768515372.9784766</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3377539350.568393</v>
+        <v>4831211670.8747</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07043531631817729</v>
+        <v>0.09569248327458259</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04489158417758637</v>
+        <v>0.03180146810785599</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>101</v>
-      </c>
-      <c r="J63" t="n">
-        <v>1688769765.4329</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3424217336.725421</v>
+        <v>4697446263.851467</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1798733597772969</v>
+        <v>0.1488138297872434</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02985071465479984</v>
+        <v>0.02459337199559687</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>109</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1712108663.725025</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4004446793.168823</v>
+        <v>5030628135.984494</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1107598329616851</v>
+        <v>0.1076573963880619</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02381049087797419</v>
+        <v>0.02003233639892248</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>125</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2002223414.918392</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4393223826.027781</v>
+        <v>5384946161.825892</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1137294704633925</v>
+        <v>0.1220402203389341</v>
       </c>
       <c r="G66" t="n">
-        <v>0.0495141648273994</v>
+        <v>0.05117462216823811</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>102</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2196611907.674672</v>
       </c>
     </row>
     <row r="67">
@@ -2706,22 +2306,16 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3508174359.406386</v>
+        <v>2526399824.431732</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07505796094521136</v>
+        <v>0.09263680626277747</v>
       </c>
       <c r="G67" t="n">
-        <v>0.031410939658033</v>
+        <v>0.04698812504005095</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>112</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1754087154.953233</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3668937006.096081</v>
+        <v>5283800537.897542</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1246390988988492</v>
+        <v>0.1252198949306261</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03179023704219166</v>
+        <v>0.04989214261373186</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>114</v>
-      </c>
-      <c r="J68" t="n">
-        <v>1834468478.776028</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2028144926.964006</v>
+        <v>1717200315.13725</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1489529784104647</v>
+        <v>0.1731538084671317</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05485424507435779</v>
+        <v>0.05793777546538895</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1014072472.071888</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3462207070.159875</v>
+        <v>2902292194.768294</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07176974109954155</v>
+        <v>0.0644020309841538</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03938691229355222</v>
+        <v>0.0351803732127171</v>
       </c>
       <c r="H70" t="b">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>100</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1731103542.231042</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3870358906.537642</v>
+        <v>5182303941.258308</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1702280931478419</v>
+        <v>0.1327308420807963</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02265400423352096</v>
+        <v>0.02277992527837182</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>127</v>
-      </c>
-      <c r="J71" t="n">
-        <v>1935179474.652477</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1997186088.036933</v>
+        <v>2166219274.198387</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06788302119716307</v>
+        <v>0.08524962383720809</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04535948008505101</v>
+        <v>0.05177982286283506</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>998592990.8228551</v>
       </c>
     </row>
     <row r="73">
@@ -2910,22 +2474,16 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2828633353.707401</v>
+        <v>2820682283.324589</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1043099870172988</v>
+        <v>0.07277547477642923</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04675053553745485</v>
+        <v>0.04825800486861535</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>133</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1414316688.533989</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3514660606.319548</v>
+        <v>3761213129.356783</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1633196288667796</v>
+        <v>0.1714670076822015</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02559032579476174</v>
+        <v>0.03203962974915705</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>119</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1757330324.094753</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1989385655.858832</v>
+        <v>2146388226.030295</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1020292143463539</v>
+        <v>0.1176300457168661</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02587567587202434</v>
+        <v>0.03288940860017445</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>994692793.1810634</v>
       </c>
     </row>
     <row r="76">
@@ -3012,22 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3228023361.003512</v>
+        <v>3925362704.52429</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1058318920787642</v>
+        <v>0.0998854975876321</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03185478540111591</v>
+        <v>0.0341919940236988</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>76</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1614011632.859605</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1870028987.892742</v>
+        <v>1716849812.478659</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1771691070947675</v>
+        <v>0.1633884236975534</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02561930746642026</v>
+        <v>0.02551131380280316</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>935014536.2595495</v>
       </c>
     </row>
     <row r="78">
@@ -3080,22 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4193774634.318605</v>
+        <v>4531252115.284763</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1114807441818878</v>
+        <v>0.10252530999205</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0469710833319253</v>
+        <v>0.04559824120727079</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>122</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2096887269.028373</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1298942744.012297</v>
+        <v>1604435476.63987</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1223915594384137</v>
+        <v>0.131339205924639</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0376532011157978</v>
+        <v>0.037401027312333</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>649471371.0623661</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3901268902.755867</v>
+        <v>4974037398.289273</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1000556740971657</v>
+        <v>0.08671941112680362</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02894774502336279</v>
+        <v>0.03372267682932534</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>73</v>
-      </c>
-      <c r="J80" t="n">
-        <v>1950634445.937476</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5028756156.258017</v>
+        <v>4538025726.12123</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1260324065284028</v>
+        <v>0.1257281980557735</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02505521455865652</v>
+        <v>0.0308919444766023</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>79</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2514378079.549735</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5655540293.633783</v>
+        <v>5578989812.009375</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1315070223049021</v>
+        <v>0.1932347907130099</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0255438667465101</v>
+        <v>0.02499225136321848</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>123</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2827770094.198781</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1778051190.412058</v>
+        <v>1727353285.023098</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1475171151413078</v>
+        <v>0.1425676835507774</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0445941440695518</v>
+        <v>0.04210243257239726</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>889025552.9210863</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1631053022.258265</v>
+        <v>2461924726.785388</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1020486307462345</v>
+        <v>0.1002542583554515</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03318222662709183</v>
+        <v>0.04857523429096086</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>4</v>
-      </c>
-      <c r="J84" t="n">
-        <v>815526570.1499802</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2607522430.321143</v>
+        <v>2239632792.586895</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1744724133082017</v>
+        <v>0.1809100485051462</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04544168507697597</v>
+        <v>0.05513615918150619</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>131</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1303761232.012635</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2409669004.854718</v>
+        <v>1943500200.367426</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1096729161280425</v>
+        <v>0.1345844387420163</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02464091681598665</v>
+        <v>0.02479721629492195</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>45</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1204834587.029027</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1002237815.717282</v>
+        <v>1482622574.336807</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1835759115188072</v>
+        <v>0.155310798284395</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03308214775274033</v>
+        <v>0.02734817269269351</v>
       </c>
       <c r="H87" t="b">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>501118912.763439</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2682169846.295728</v>
+        <v>3681902985.047653</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1158631646642861</v>
+        <v>0.1242363413104912</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03972143825656333</v>
+        <v>0.02770872870275111</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>138</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1341084922.20246</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2405150535.857644</v>
+        <v>3113362241.581479</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1516456927763862</v>
+        <v>0.1341751359492952</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03597065260226509</v>
+        <v>0.03823868661649358</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>119</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1202575349.663857</v>
       </c>
     </row>
     <row r="90">
@@ -3488,22 +2950,16 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1321369330.525179</v>
+        <v>1649812356.024054</v>
       </c>
       <c r="F90" t="n">
-        <v>0.08377835594791617</v>
+        <v>0.1091188739535541</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03593874950257893</v>
+        <v>0.04148164416243529</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>660684611.3360018</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1338483960.363569</v>
+        <v>1818955224.56708</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1882873270735284</v>
+        <v>0.1901191326752957</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03818610738891133</v>
+        <v>0.05022410250339543</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>669242040.6197537</v>
       </c>
     </row>
     <row r="92">
@@ -3556,22 +3006,16 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2229282322.643406</v>
+        <v>2299061829.839375</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09484878515382608</v>
+        <v>0.09540694911288081</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03879718901422029</v>
+        <v>0.03516260849732996</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>94</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1114641124.8206</v>
       </c>
     </row>
     <row r="93">
@@ -3590,22 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3543983238.542768</v>
+        <v>4327010356.738979</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1154697689554822</v>
+        <v>0.1094199341753991</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04030226658747292</v>
+        <v>0.05185744095417322</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>103</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1771991649.385276</v>
       </c>
     </row>
     <row r="94">
@@ -3624,22 +3062,16 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1872718796.964204</v>
+        <v>1901986147.7178</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1398888677407651</v>
+        <v>0.1538156094673361</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0368902280962786</v>
+        <v>0.03116073402216495</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>1</v>
-      </c>
-      <c r="J94" t="n">
-        <v>936359380.3312104</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3134721640.812981</v>
+        <v>2551558500.816537</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1255881055303993</v>
+        <v>0.137881770294937</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03737051792819664</v>
+        <v>0.03690747028976644</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>85</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1567360810.380521</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1932271631.124337</v>
+        <v>1579068425.328304</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1027105461773373</v>
+        <v>0.1077490932466676</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03214642213511026</v>
+        <v>0.04534618918576942</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>966135809.7711402</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4420616798.982783</v>
+        <v>4239480539.193367</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1065711932834561</v>
+        <v>0.1352887858825386</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02369893875104358</v>
+        <v>0.02521823244813121</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>112</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2210308489.715793</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -3760,22 +3174,16 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2808619572.656128</v>
+        <v>3629353914.215055</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1280348559483563</v>
+        <v>0.1133540396501135</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02331151995144188</v>
+        <v>0.03195806394933903</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>95</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1404309758.058071</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2741502840.493749</v>
+        <v>2838536576.134354</v>
       </c>
       <c r="F99" t="n">
-        <v>0.134405658001549</v>
+        <v>0.1424820565297092</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02497788374470363</v>
+        <v>0.02256498954011429</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>110</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1370751387.464303</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3858117565.785577</v>
+        <v>3523014309.210674</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1513209927794746</v>
+        <v>0.1693221015801588</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02599439442420182</v>
+        <v>0.02239319066124163</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>108</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1929058842.258613</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3244251510.09024</v>
+        <v>2507381814.624155</v>
       </c>
       <c r="F101" t="n">
-        <v>0.17279783406722</v>
+        <v>0.1359908685060582</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05155312987144321</v>
+        <v>0.03869083328244274</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>141</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1622125876.394315</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_349.xlsx
+++ b/output/fit_clients/fit_round_349.xlsx
@@ -486,16 +486,16 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1816476010.983552</v>
+        <v>1623118508.671357</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09339042424716588</v>
+        <v>0.08682682142862533</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04002864684578806</v>
+        <v>0.03088175825482323</v>
       </c>
       <c r="H2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -508,22 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2305015202.032818</v>
+        <v>2233876214.325993</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1182326339968907</v>
+        <v>0.1305866116607029</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03319148826269908</v>
+        <v>0.04635899323925106</v>
       </c>
       <c r="H3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -536,22 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3998868035.368721</v>
+        <v>5236928276.890493</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1163530366002483</v>
+        <v>0.1159358949474681</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02621304619442693</v>
+        <v>0.03068050533111008</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3017668549.037019</v>
+        <v>3028438355.468465</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09825900103059565</v>
+        <v>0.09950796815939973</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04876386493239785</v>
+        <v>0.03364531546864688</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,22 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1743832919.560439</v>
+        <v>2072040825.946523</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1009739850469304</v>
+        <v>0.1075669293393789</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04601645745716876</v>
+        <v>0.04851422611797675</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -620,22 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2200489680.564767</v>
+        <v>2888509035.07559</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07303030168473872</v>
+        <v>0.06698516213980822</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04783834708503678</v>
+        <v>0.03708102578012161</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3603431848.590542</v>
+        <v>3116991234.946225</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1631986063455415</v>
+        <v>0.1424725110380678</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02597095134315199</v>
+        <v>0.02189959822493185</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1784413471.559178</v>
+        <v>1470312266.122276</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1786218338396111</v>
+        <v>0.1988546316995903</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02690437313151391</v>
+        <v>0.02589167812873245</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -710,16 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4772294492.056288</v>
+        <v>5042410632.466161</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1658155570834318</v>
+        <v>0.1345611733217486</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05427070257025316</v>
+        <v>0.03413349987715644</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -738,13 +738,13 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3062589771.477581</v>
+        <v>3237642491.157323</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1498446761764751</v>
+        <v>0.1717086552165744</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04344904376615744</v>
+        <v>0.04202169227892948</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -766,13 +766,13 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2509928282.97561</v>
+        <v>3192257513.905787</v>
       </c>
       <c r="F12" t="n">
-        <v>0.166573643270734</v>
+        <v>0.1830762585015384</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03468621598656103</v>
+        <v>0.04178096302184053</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -794,16 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5026987300.511642</v>
+        <v>4177917492.999369</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08077927089046646</v>
+        <v>0.06717634346408009</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02675235874166096</v>
+        <v>0.02068858936140491</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2587043836.084055</v>
+        <v>3837042734.49489</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1368712949134598</v>
+        <v>0.1777893888276195</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02837777395901715</v>
+        <v>0.03680905692756622</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -850,13 +850,13 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1735240946.126478</v>
+        <v>1449325131.119251</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1075851710192421</v>
+        <v>0.08567771903978104</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0410296043094158</v>
+        <v>0.04713106150048069</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2507237820.737687</v>
+        <v>2623834478.434437</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09558525557955468</v>
+        <v>0.09038596215526497</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04550472896166612</v>
+        <v>0.04450739834623951</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,22 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3941631074.024229</v>
+        <v>3340018140.176731</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1695845937825866</v>
+        <v>0.1639140399456366</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05161389330473743</v>
+        <v>0.05181250925519584</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3565937715.023095</v>
+        <v>3394551881.674372</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1638004758839587</v>
+        <v>0.1839650012684651</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02197148236037406</v>
+        <v>0.03350236472782474</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1361501142.367084</v>
+        <v>1261428061.06936</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1224685549260904</v>
+        <v>0.1851455048147747</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01685377663814946</v>
+        <v>0.02671188721007609</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -990,13 +990,13 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2039258187.451631</v>
+        <v>2105934047.005157</v>
       </c>
       <c r="F20" t="n">
-        <v>0.09771259870949058</v>
+        <v>0.1439647255212769</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02927150728549412</v>
+        <v>0.0258120332268916</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2213154616.680593</v>
+        <v>2706001124.602803</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08528873916677381</v>
+        <v>0.09302586470439465</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03654808843579141</v>
+        <v>0.0325399161041864</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1046,13 +1046,13 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>4004638447.148271</v>
+        <v>2937488058.575824</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1076362808768066</v>
+        <v>0.1202222050883914</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03846718730195828</v>
+        <v>0.05613124209731735</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1025650306.730728</v>
+        <v>1472196678.164335</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1742229627555497</v>
+        <v>0.1194876218290109</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04495841691225154</v>
+        <v>0.05067598501539518</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3793560412.059523</v>
+        <v>3751676354.86636</v>
       </c>
       <c r="F24" t="n">
-        <v>0.147164869335284</v>
+        <v>0.1117201548865616</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02667787874484694</v>
+        <v>0.03601839473219862</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,22 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1391969171.744447</v>
+        <v>1474573626.124383</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1190306696344477</v>
+        <v>0.1089073918500966</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02303000945873534</v>
+        <v>0.0255330347196729</v>
       </c>
       <c r="H25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>891599921.6665176</v>
+        <v>1372648857.732813</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09941297755684717</v>
+        <v>0.09429218358904928</v>
       </c>
       <c r="G26" t="n">
-        <v>0.034804848093114</v>
+        <v>0.0268590058473103</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4250379532.342526</v>
+        <v>3637573464.280945</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1038247119613104</v>
+        <v>0.1528286027751695</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02031040151946167</v>
+        <v>0.01642148857935355</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3713438331.38839</v>
+        <v>3551329432.243096</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1108675740840139</v>
+        <v>0.1144225375234474</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0426441204815916</v>
+        <v>0.04084339183482374</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1242,16 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4421673653.079108</v>
+        <v>5400194485.49544</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1287633925914147</v>
+        <v>0.1189992270044839</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03114355849483436</v>
+        <v>0.030666569721107</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1781684021.907002</v>
+        <v>2088203044.271844</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1263709235750342</v>
+        <v>0.09527475671207192</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03765466827041068</v>
+        <v>0.02467057079920368</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1298,13 +1298,13 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>921606119.2851967</v>
+        <v>1033751629.776005</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1006433511353881</v>
+        <v>0.07023497884486996</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04181975223361156</v>
+        <v>0.04049981068745055</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1328760954.601403</v>
+        <v>1769266002.570601</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07964266157955556</v>
+        <v>0.09236397461699136</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03018329473791971</v>
+        <v>0.03122857705237493</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>3065090347.304573</v>
+        <v>3089557567.639595</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1907189414225894</v>
+        <v>0.1391766326174952</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04074298927739399</v>
+        <v>0.04867190894251508</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1205941010.517323</v>
+        <v>996093501.9159546</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09110930575197744</v>
+        <v>0.1214588570302754</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02294104485195789</v>
+        <v>0.02201366539531937</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>850484851.8454297</v>
+        <v>1049150109.733732</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1064582832871023</v>
+        <v>0.07382374157721019</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02843291704975678</v>
+        <v>0.03001183654399244</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2303280712.420378</v>
+        <v>3162027330.897016</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1311860204227899</v>
+        <v>0.1700403897733019</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0253276042465127</v>
+        <v>0.02748976440119618</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2829137679.559144</v>
+        <v>2907598474.016787</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08600329323542422</v>
+        <v>0.07448455536623785</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0259393723846012</v>
+        <v>0.03457507544934623</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2185021738.049524</v>
+        <v>1941550933.361418</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1116501979433644</v>
+        <v>0.115170429694807</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03168328577014808</v>
+        <v>0.03019675190500661</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,22 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1784130508.827075</v>
+        <v>1879468847.076179</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1357777122720122</v>
+        <v>0.1210253746732114</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02575242541039106</v>
+        <v>0.02303440474528496</v>
       </c>
       <c r="H39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1550,13 +1550,13 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1376952602.146801</v>
+        <v>1490867123.001608</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1623631519904347</v>
+        <v>0.1331894362671122</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05599041191181819</v>
+        <v>0.04836997052307657</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,22 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2217472873.523987</v>
+        <v>2112995664.563448</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1581107825478683</v>
+        <v>0.1004911623728953</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03942848909101012</v>
+        <v>0.0418213560114462</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3941892008.18863</v>
+        <v>3823101358.046441</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08226234790638531</v>
+        <v>0.08563961747998801</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04394647647445915</v>
+        <v>0.04607339468601551</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1634,16 +1634,16 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2479877263.18827</v>
+        <v>2433118585.070072</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1910702072113784</v>
+        <v>0.1630533108982468</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0245841638766924</v>
+        <v>0.01578064329689323</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1662,13 +1662,13 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2327812963.828846</v>
+        <v>1493980114.569839</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08285626750881055</v>
+        <v>0.06451822949219199</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03130130693183757</v>
+        <v>0.02812648841136761</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,22 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1839616809.204978</v>
+        <v>2160517633.215822</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1834552239814166</v>
+        <v>0.1805423293984918</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03642328207380004</v>
+        <v>0.05468725675200781</v>
       </c>
       <c r="H45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3446455311.355529</v>
+        <v>5024607614.942336</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1759824704103181</v>
+        <v>0.1549985289649421</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05634405001409248</v>
+        <v>0.05711212193891862</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3274081651.681099</v>
+        <v>4296117635.862109</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1604681400720489</v>
+        <v>0.1839339744595977</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04004380066693624</v>
+        <v>0.05819835596775111</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4181473846.033378</v>
+        <v>3939718776.033218</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07134684872908852</v>
+        <v>0.09092744385762877</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02523910878115396</v>
+        <v>0.03546856393443169</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1225680227.450042</v>
+        <v>1922107439.413154</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1900151874235097</v>
+        <v>0.1233402375861539</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03750664833859171</v>
+        <v>0.04445906609170756</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,22 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3125273390.952756</v>
+        <v>3840941482.11177</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1118216038796582</v>
+        <v>0.145793736844296</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03954683529882232</v>
+        <v>0.051206231998031</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1504118745.41456</v>
+        <v>1365456554.282783</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1193438032426338</v>
+        <v>0.1817740639061068</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05078024720369851</v>
+        <v>0.04623255801568348</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1886,13 +1886,13 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3546885078.741362</v>
+        <v>4978049188.953866</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09279846310214289</v>
+        <v>0.1003752617256114</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04887366811679104</v>
+        <v>0.04030357484596325</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1914,13 +1914,13 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3353926775.974868</v>
+        <v>2661656561.518631</v>
       </c>
       <c r="F53" t="n">
-        <v>0.142961961438776</v>
+        <v>0.1774918564974743</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02335871407984009</v>
+        <v>0.02950699830800519</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3811677945.952372</v>
+        <v>4010784400.934957</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1601481675875196</v>
+        <v>0.1218405947036433</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04332027275481631</v>
+        <v>0.04404897847659187</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4146275616.681854</v>
+        <v>4732470856.861451</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2151454020272504</v>
+        <v>0.203679242907066</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02714389171024741</v>
+        <v>0.02954726034793076</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1808640525.67419</v>
+        <v>1190742886.47913</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1441958961577929</v>
+        <v>0.1338328270487734</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03852908244130251</v>
+        <v>0.05539540539531838</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,22 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3555416742.306764</v>
+        <v>3341669798.914651</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1487507323860616</v>
+        <v>0.1277732141467182</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02272526461260587</v>
+        <v>0.02333256122415674</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2054,16 +2054,16 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1392255403.90892</v>
+        <v>1480290239.248442</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1357379241973933</v>
+        <v>0.1442974638457733</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02638094820913265</v>
+        <v>0.03089971020811032</v>
       </c>
       <c r="H58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -2076,22 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3760739487.494063</v>
+        <v>3333052320.497835</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09525817087734299</v>
+        <v>0.1144097733913098</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04971807672964725</v>
+        <v>0.04623288816415527</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3733763923.381934</v>
+        <v>3556651566.631313</v>
       </c>
       <c r="F60" t="n">
-        <v>0.2023229966717689</v>
+        <v>0.1494963870521138</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02100151532910347</v>
+        <v>0.02998879379276783</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2108425619.326977</v>
+        <v>3225793047.399642</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1306964948098326</v>
+        <v>0.128350602218882</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02937264553045268</v>
+        <v>0.02368371561986645</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2166,16 +2166,16 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1293415210.406063</v>
+        <v>1929803758.944592</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1222518043791411</v>
+        <v>0.1884201673167212</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03656186631739473</v>
+        <v>0.03546745812803983</v>
       </c>
       <c r="H62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4831211670.8747</v>
+        <v>4808497791.027513</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09569248327458259</v>
+        <v>0.09730826938581139</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03180146810785599</v>
+        <v>0.03870795182957625</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4697446263.851467</v>
+        <v>4969659067.517615</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1488138297872434</v>
+        <v>0.1247866322371864</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02459337199559687</v>
+        <v>0.03158560871343127</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5030628135.984494</v>
+        <v>5326360286.789927</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1076573963880619</v>
+        <v>0.1051614937459079</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02003233639892248</v>
+        <v>0.02140539834427517</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5384946161.825892</v>
+        <v>4219011487.33489</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1220402203389341</v>
+        <v>0.1587242887861551</v>
       </c>
       <c r="G66" t="n">
-        <v>0.05117462216823811</v>
+        <v>0.03761201566697812</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2526399824.431732</v>
+        <v>3038964934.803871</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09263680626277747</v>
+        <v>0.07915731042245842</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04698812504005095</v>
+        <v>0.04943356694313658</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2334,16 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5283800537.897542</v>
+        <v>4974207252.521064</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1252198949306261</v>
+        <v>0.1550461254412001</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04989214261373186</v>
+        <v>0.03491186386373362</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1717200315.13725</v>
+        <v>1507188605.003114</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1731538084671317</v>
+        <v>0.1547988700614053</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05793777546538895</v>
+        <v>0.05923037088915657</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2390,16 +2390,16 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2902292194.768294</v>
+        <v>3161724129.490596</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0644020309841538</v>
+        <v>0.08213188514405972</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0351803732127171</v>
+        <v>0.03710312992981313</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5182303941.258308</v>
+        <v>4006718723.39816</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1327308420807963</v>
+        <v>0.1210781764349375</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02277992527837182</v>
+        <v>0.02109723793712804</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2166219274.198387</v>
+        <v>2204673095.851431</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08524962383720809</v>
+        <v>0.09700709672391693</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05177982286283506</v>
+        <v>0.03507315680307056</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2820682283.324589</v>
+        <v>2315015736.433772</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07277547477642923</v>
+        <v>0.09285694925148963</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04825800486861535</v>
+        <v>0.03212796905645467</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3761213129.356783</v>
+        <v>2647129052.137559</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1714670076822015</v>
+        <v>0.1113817972622653</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03203962974915705</v>
+        <v>0.03101927556310769</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2146388226.030295</v>
+        <v>2266584980.254673</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1176300457168661</v>
+        <v>0.1518086390960784</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03288940860017445</v>
+        <v>0.03770010624611485</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3925362704.52429</v>
+        <v>4348634976.998998</v>
       </c>
       <c r="F76" t="n">
-        <v>0.0998854975876321</v>
+        <v>0.1050285872763104</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0341919940236988</v>
+        <v>0.02777004618029602</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1716849812.478659</v>
+        <v>2207321703.366223</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1633884236975534</v>
+        <v>0.1234835121392014</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02551131380280316</v>
+        <v>0.02734338440874533</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4531252115.284763</v>
+        <v>4409000566.961994</v>
       </c>
       <c r="F78" t="n">
-        <v>0.10252530999205</v>
+        <v>0.1267974045692096</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04559824120727079</v>
+        <v>0.04645827008250593</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1604435476.63987</v>
+        <v>1290276054.751322</v>
       </c>
       <c r="F79" t="n">
-        <v>0.131339205924639</v>
+        <v>0.1251393846332192</v>
       </c>
       <c r="G79" t="n">
-        <v>0.037401027312333</v>
+        <v>0.04074268235855218</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4974037398.289273</v>
+        <v>5086805596.768856</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08671941112680362</v>
+        <v>0.1101266563634241</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03372267682932534</v>
+        <v>0.03829713592791446</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2698,16 +2698,16 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4538025726.12123</v>
+        <v>3906629407.022354</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1257281980557735</v>
+        <v>0.1185246673058546</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0308919444766023</v>
+        <v>0.02438245290490123</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5578989812.009375</v>
+        <v>4653803343.016048</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1932347907130099</v>
+        <v>0.1844873395992342</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02499225136321848</v>
+        <v>0.02337423670026416</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1727353285.023098</v>
+        <v>2138805452.699103</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1425676835507774</v>
+        <v>0.1191729202708527</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04210243257239726</v>
+        <v>0.04013010705046711</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2461924726.785388</v>
+        <v>2575796312.746901</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1002542583554515</v>
+        <v>0.1106461453534958</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04857523429096086</v>
+        <v>0.03706808487935395</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2239632792.586895</v>
+        <v>3538942337.074273</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1809100485051462</v>
+        <v>0.14812965080949</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05513615918150619</v>
+        <v>0.05461338066912651</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1943500200.367426</v>
+        <v>2720528417.371845</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1345844387420163</v>
+        <v>0.1442587612492099</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02479721629492195</v>
+        <v>0.01982275734189093</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,22 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1482622574.336807</v>
+        <v>1035399748.950304</v>
       </c>
       <c r="F87" t="n">
-        <v>0.155310798284395</v>
+        <v>0.1648988445621649</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02734817269269351</v>
+        <v>0.02873950935038727</v>
       </c>
       <c r="H87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -2894,13 +2894,13 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3681902985.047653</v>
+        <v>2756734936.119967</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1242363413104912</v>
+        <v>0.1759520299476694</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02770872870275111</v>
+        <v>0.02791405960931031</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2922,13 +2922,13 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3113362241.581479</v>
+        <v>2921917403.880208</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1341751359492952</v>
+        <v>0.1081454404779049</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03823868661649358</v>
+        <v>0.04117666621612056</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1649812356.024054</v>
+        <v>1808865214.452395</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1091188739535541</v>
+        <v>0.1164922985418343</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04148164416243529</v>
+        <v>0.0558530936762734</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2978,13 +2978,13 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1818955224.56708</v>
+        <v>1861518577.519036</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1901191326752957</v>
+        <v>0.1557022123521377</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05022410250339543</v>
+        <v>0.05350877950427114</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2299061829.839375</v>
+        <v>2915543911.084773</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09540694911288081</v>
+        <v>0.0839674453057513</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03516260849732996</v>
+        <v>0.04036993004027059</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4327010356.738979</v>
+        <v>3301657175.276704</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1094199341753991</v>
+        <v>0.1315466147310365</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05185744095417322</v>
+        <v>0.05065553606193975</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1901986147.7178</v>
+        <v>1888625750.153691</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1538156094673361</v>
+        <v>0.1092417934667146</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03116073402216495</v>
+        <v>0.04140633314185114</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2551558500.816537</v>
+        <v>2848599955.440619</v>
       </c>
       <c r="F95" t="n">
-        <v>0.137881770294937</v>
+        <v>0.1147418027000181</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03690747028976644</v>
+        <v>0.04280522042000145</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1579068425.328304</v>
+        <v>1467036948.950576</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1077490932466676</v>
+        <v>0.1180311268809816</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04534618918576942</v>
+        <v>0.02961727230248437</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4239480539.193367</v>
+        <v>3835846035.501142</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1352887858825386</v>
+        <v>0.1399763719837296</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02521823244813121</v>
+        <v>0.02475641529474422</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3629353914.215055</v>
+        <v>3945418298.366034</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1133540396501135</v>
+        <v>0.08896589499933442</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03195806394933903</v>
+        <v>0.03037191367383532</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3202,13 +3202,13 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2838536576.134354</v>
+        <v>2819386848.535787</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1424820565297092</v>
+        <v>0.09310409465658141</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02256498954011429</v>
+        <v>0.02180593834299022</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3523014309.210674</v>
+        <v>3106085059.36374</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1693221015801588</v>
+        <v>0.131164536623753</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02239319066124163</v>
+        <v>0.02576773068936392</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2507381814.624155</v>
+        <v>3451643820.767381</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1359908685060582</v>
+        <v>0.1466277841320076</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03869083328244274</v>
+        <v>0.03589392715057439</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_349.xlsx
+++ b/output/fit_clients/fit_round_349.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -486,17 +501,24 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1623118508.671357</v>
+        <v>1690194898.636074</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08682682142862533</v>
+        <v>0.08019262024770475</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03088175825482323</v>
+        <v>0.02876533960222176</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2233876214.325993</v>
+        <v>2256363253.39735</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1305866116607029</v>
+        <v>0.1212586900825081</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04635899323925106</v>
+        <v>0.04410501465269918</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5236928276.890493</v>
+        <v>3919552595.800372</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1159358949474681</v>
+        <v>0.1584774143731783</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03068050533111008</v>
+        <v>0.03460633555378012</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>180</v>
+      </c>
+      <c r="J4" t="n">
+        <v>349</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,22 +600,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3028438355.468465</v>
+        <v>3922566378.796798</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09950796815939973</v>
+        <v>0.08461943110537107</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03364531546864688</v>
+        <v>0.04986802233641441</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>139</v>
+      </c>
+      <c r="J5" t="n">
+        <v>349</v>
+      </c>
+      <c r="K5" t="n">
+        <v>73.83503949007546</v>
       </c>
     </row>
     <row r="6">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2072040825.946523</v>
+        <v>2714839034.996296</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1075669293393789</v>
+        <v>0.1390944564273973</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04851422611797675</v>
+        <v>0.04115600990502128</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2888509035.07559</v>
+        <v>2314761443.863384</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06698516213980822</v>
+        <v>0.08807274655318049</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03708102578012161</v>
+        <v>0.03100781186933432</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -654,17 +713,24 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3116991234.946225</v>
+        <v>2971334889.347015</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1424725110380678</v>
+        <v>0.1410496782456265</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02189959822493185</v>
+        <v>0.02326078879213586</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>91</v>
+      </c>
+      <c r="J8" t="n">
+        <v>347</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +742,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1470312266.122276</v>
+        <v>1582844816.055538</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1988546316995903</v>
+        <v>0.1933918317787395</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02589167812873245</v>
+        <v>0.03594484039580077</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -710,16 +783,25 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5042410632.466161</v>
+        <v>5348063582.884543</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1345611733217486</v>
+        <v>0.1977472007661362</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03413349987715644</v>
+        <v>0.05378685620866561</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>295</v>
+      </c>
+      <c r="J10" t="n">
+        <v>348</v>
+      </c>
+      <c r="K10" t="n">
+        <v>64.02549855902113</v>
       </c>
     </row>
     <row r="11">
@@ -738,16 +820,25 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3237642491.157323</v>
+        <v>4194492895.164233</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1717086552165744</v>
+        <v>0.1378488473906342</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04202169227892948</v>
+        <v>0.03222171719778424</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>144</v>
+      </c>
+      <c r="J11" t="n">
+        <v>349</v>
+      </c>
+      <c r="K11" t="n">
+        <v>73.09098095720081</v>
       </c>
     </row>
     <row r="12">
@@ -760,23 +851,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3192257513.905787</v>
+        <v>2117549938.571153</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1830762585015384</v>
+        <v>0.1199937593866514</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04178096302184053</v>
+        <v>0.03779055834958781</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +886,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4177917492.999369</v>
+        <v>4139212166.940648</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06717634346408009</v>
+        <v>0.08092438308329433</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02068858936140491</v>
+        <v>0.02858892118290963</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>181</v>
+      </c>
+      <c r="J13" t="n">
+        <v>348</v>
+      </c>
+      <c r="K13" t="n">
+        <v>63.30368203482092</v>
       </c>
     </row>
     <row r="14">
@@ -816,23 +923,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3837042734.49489</v>
+        <v>3864313790.997358</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1777893888276195</v>
+        <v>0.1186466422362579</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03680905692756622</v>
+        <v>0.03828390966705669</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>72</v>
+      </c>
+      <c r="J14" t="n">
+        <v>349</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +958,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1449325131.119251</v>
+        <v>1153971001.259449</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08567771903978104</v>
+        <v>0.0911142363093058</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04713106150048069</v>
+        <v>0.03184993925484942</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -878,17 +999,24 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2623834478.434437</v>
+        <v>2334984010.036465</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09038596215526497</v>
+        <v>0.1002573064386472</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04450739834623951</v>
+        <v>0.0408033097922462</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1028,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3340018140.176731</v>
+        <v>3279651637.6518</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1639140399456366</v>
+        <v>0.1638344207175157</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05181250925519584</v>
+        <v>0.05143927800563134</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>165</v>
+      </c>
+      <c r="J17" t="n">
+        <v>348</v>
+      </c>
+      <c r="K17" t="n">
+        <v>41.24879586609707</v>
       </c>
     </row>
     <row r="18">
@@ -928,22 +1065,31 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3394551881.674372</v>
+        <v>2577606179.931409</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1839650012684651</v>
+        <v>0.1828941535762679</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03350236472782474</v>
+        <v>0.03357482033211835</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>86</v>
+      </c>
+      <c r="J18" t="n">
+        <v>348</v>
+      </c>
+      <c r="K18" t="n">
+        <v>31.73809797817891</v>
       </c>
     </row>
     <row r="19">
@@ -956,23 +1102,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1261428061.06936</v>
+        <v>1209117628.302865</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1851455048147747</v>
+        <v>0.1844900019134237</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02671188721007609</v>
+        <v>0.02730368590792602</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -990,17 +1143,24 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2105934047.005157</v>
+        <v>2068262566.879903</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1439647255212769</v>
+        <v>0.1477364105736741</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0258120332268916</v>
+        <v>0.02978426480379742</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1172,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2706001124.602803</v>
+        <v>2574314618.739798</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09302586470439465</v>
+        <v>0.08873138010875672</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0325399161041864</v>
+        <v>0.04358615992103931</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1207,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2937488058.575824</v>
+        <v>3330859267.994446</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1202222050883914</v>
+        <v>0.1011111046977919</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05613124209731735</v>
+        <v>0.05357630469976155</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>94</v>
+      </c>
+      <c r="J22" t="n">
+        <v>347</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1074,17 +1248,24 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1472196678.164335</v>
+        <v>1555487426.50299</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1194876218290109</v>
+        <v>0.1455290189695322</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05067598501539518</v>
+        <v>0.05064283655029973</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,22 +1277,31 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3751676354.86636</v>
+        <v>2692994667.186875</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1117201548865616</v>
+        <v>0.1172428748152727</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03601839473219862</v>
+        <v>0.02902597307246535</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>104</v>
+      </c>
+      <c r="J24" t="n">
+        <v>348</v>
+      </c>
+      <c r="K24" t="n">
+        <v>29.46766006236235</v>
       </c>
     </row>
     <row r="25">
@@ -1124,23 +1314,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1474573626.124383</v>
+        <v>1220570131.293858</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1089073918500966</v>
+        <v>0.07399014627489933</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0255330347196729</v>
+        <v>0.02732548787789674</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1349,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1372648857.732813</v>
+        <v>1089464552.34389</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09429218358904928</v>
+        <v>0.09651195332457153</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0268590058473103</v>
+        <v>0.03023848158741441</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1384,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3637573464.280945</v>
+        <v>3158741273.338252</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1528286027751695</v>
+        <v>0.1308125839487075</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01642148857935355</v>
+        <v>0.02071874390000484</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>145</v>
+      </c>
+      <c r="J27" t="n">
+        <v>347</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,23 +1419,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3551329432.243096</v>
+        <v>2697991116.315616</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1144225375234474</v>
+        <v>0.09215650039055889</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04084339183482374</v>
+        <v>0.03639737524129609</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>78</v>
+      </c>
+      <c r="J28" t="n">
+        <v>345</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1242,17 +1460,24 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5400194485.49544</v>
+        <v>4758018571.151176</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1189992270044839</v>
+        <v>0.09257500034438691</v>
       </c>
       <c r="G29" t="n">
-        <v>0.030666569721107</v>
+        <v>0.03471081257142242</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
       </c>
+      <c r="I29" t="n">
+        <v>312</v>
+      </c>
+      <c r="J29" t="n">
+        <v>349</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1264,23 +1489,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2088203044.271844</v>
+        <v>1743858660.170511</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09527475671207192</v>
+        <v>0.1240411588697461</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02467057079920368</v>
+        <v>0.0387928080481306</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1524,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1033751629.776005</v>
+        <v>1499400420.411308</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07023497884486996</v>
+        <v>0.09217614950040402</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04049981068745055</v>
+        <v>0.03227493382728145</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1559,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1769266002.570601</v>
+        <v>1433509133.627311</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09236397461699136</v>
+        <v>0.1069377309126014</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03122857705237493</v>
+        <v>0.03150627013741386</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1594,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>3089557567.639595</v>
+        <v>2949203092.592119</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1391766326174952</v>
+        <v>0.1607249220557194</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04867190894251508</v>
+        <v>0.04431532568536212</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1629,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>996093501.9159546</v>
+        <v>1286553614.188841</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1214588570302754</v>
+        <v>0.09578059159980318</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02201366539531937</v>
+        <v>0.02570822798979478</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1410,17 +1670,24 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1049150109.733732</v>
+        <v>962935913.756322</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07382374157721019</v>
+        <v>0.09772599505361772</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03001183654399244</v>
+        <v>0.03469236833844104</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1699,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3162027330.897016</v>
+        <v>2030875773.882301</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1700403897733019</v>
+        <v>0.1099513613158553</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02748976440119618</v>
+        <v>0.02644164128838555</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1466,17 +1740,24 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2907598474.016787</v>
+        <v>2110865331.086394</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07448455536623785</v>
+        <v>0.08576739206727804</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03457507544934623</v>
+        <v>0.03165105220259594</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1769,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1941550933.361418</v>
+        <v>2129873387.472517</v>
       </c>
       <c r="F38" t="n">
-        <v>0.115170429694807</v>
+        <v>0.1058527825202189</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03019675190500661</v>
+        <v>0.02544380442323954</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1804,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1879468847.076179</v>
+        <v>1851555454.178158</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1210253746732114</v>
+        <v>0.1615623374044089</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02303440474528496</v>
+        <v>0.02470837016669803</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1839,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1490867123.001608</v>
+        <v>1183997967.196146</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1331894362671122</v>
+        <v>0.1533937508835371</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04836997052307657</v>
+        <v>0.03664668101412739</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1874,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2112995664.563448</v>
+        <v>1852214769.070056</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1004911623728953</v>
+        <v>0.1229743238958858</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0418213560114462</v>
+        <v>0.04098169672104668</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,22 +1909,31 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3823101358.046441</v>
+        <v>2749511677.308824</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08563961747998801</v>
+        <v>0.08215757672134624</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04607339468601551</v>
+        <v>0.03617890975102925</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>152</v>
+      </c>
+      <c r="J42" t="n">
+        <v>348</v>
+      </c>
+      <c r="K42" t="n">
+        <v>32.32171340787833</v>
       </c>
     </row>
     <row r="43">
@@ -1628,23 +1946,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2433118585.070072</v>
+        <v>1928504541.93076</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1630533108982468</v>
+        <v>0.2005767744149274</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01578064329689323</v>
+        <v>0.02450586092719563</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1662,17 +1987,24 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1493980114.569839</v>
+        <v>2253449442.881091</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06451822949219199</v>
+        <v>0.07811156428495147</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02812648841136761</v>
+        <v>0.02555340532579162</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1690,17 +2022,24 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2160517633.215822</v>
+        <v>2202520924.859203</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1805423293984918</v>
+        <v>0.1396179844487891</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05468725675200781</v>
+        <v>0.04172453779887896</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2051,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5024607614.942336</v>
+        <v>3779141514.229371</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1549985289649421</v>
+        <v>0.1768248313870666</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05711212193891862</v>
+        <v>0.05232630490412101</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>210</v>
+      </c>
+      <c r="J46" t="n">
+        <v>348</v>
+      </c>
+      <c r="K46" t="n">
+        <v>54.85522392512244</v>
       </c>
     </row>
     <row r="47">
@@ -1746,16 +2094,25 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4296117635.862109</v>
+        <v>4703713201.325233</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1839339744595977</v>
+        <v>0.1979501007472897</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05819835596775111</v>
+        <v>0.05216317558173091</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>156</v>
+      </c>
+      <c r="J47" t="n">
+        <v>348</v>
+      </c>
+      <c r="K47" t="n">
+        <v>56.65552037166601</v>
       </c>
     </row>
     <row r="48">
@@ -1768,23 +2125,30 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3939718776.033218</v>
+        <v>3812192610.271077</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09092744385762877</v>
+        <v>0.07741639091151614</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03546856393443169</v>
+        <v>0.03930752985602818</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>174</v>
+      </c>
+      <c r="J48" t="n">
+        <v>349</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2160,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1922107439.413154</v>
+        <v>1727193704.617825</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1233402375861539</v>
+        <v>0.1326740320104718</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04445906609170756</v>
+        <v>0.04417680785520767</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1830,17 +2201,24 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3840941482.11177</v>
+        <v>3191026093.910806</v>
       </c>
       <c r="F50" t="n">
-        <v>0.145793736844296</v>
+        <v>0.1221999477808578</v>
       </c>
       <c r="G50" t="n">
-        <v>0.051206231998031</v>
+        <v>0.04255572736445672</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>115</v>
+      </c>
+      <c r="J50" t="n">
+        <v>347</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2230,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1365456554.282783</v>
+        <v>1441336222.319704</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1817740639061068</v>
+        <v>0.1880593923931718</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04623255801568348</v>
+        <v>0.04237947882837721</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,23 +2265,30 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4978049188.953866</v>
+        <v>3996134947.765555</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1003752617256114</v>
+        <v>0.09858747277375263</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04030357484596325</v>
+        <v>0.05852332528834003</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>208</v>
+      </c>
+      <c r="J52" t="n">
+        <v>349</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1914,17 +2306,24 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2661656561.518631</v>
+        <v>2409477009.016613</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1774918564974743</v>
+        <v>0.1276994787079885</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02950699830800519</v>
+        <v>0.02273480374897229</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>51</v>
+      </c>
+      <c r="J53" t="n">
+        <v>345</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,23 +2335,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4010784400.934957</v>
+        <v>4652588456.473825</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1218405947036433</v>
+        <v>0.1630373698843506</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04404897847659187</v>
+        <v>0.04942474299018317</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>183</v>
+      </c>
+      <c r="J54" t="n">
+        <v>349</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,22 +2370,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4732470856.861451</v>
+        <v>4905429034.490989</v>
       </c>
       <c r="F55" t="n">
-        <v>0.203679242907066</v>
+        <v>0.2150680633604586</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02954726034793076</v>
+        <v>0.03097642456810114</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>167</v>
+      </c>
+      <c r="J55" t="n">
+        <v>349</v>
+      </c>
+      <c r="K55" t="n">
+        <v>66.937251084832</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2407,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1190742886.47913</v>
+        <v>1782086055.810531</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1338328270487734</v>
+        <v>0.1043088729205184</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05539540539531838</v>
+        <v>0.04614009562583641</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2442,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3341669798.914651</v>
+        <v>3792496569.61348</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1277732141467182</v>
+        <v>0.1478670094087564</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02333256122415674</v>
+        <v>0.02715313746787682</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>142</v>
+      </c>
+      <c r="J57" t="n">
+        <v>349</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2477,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1480290239.248442</v>
+        <v>1297290091.623695</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1442974638457733</v>
+        <v>0.185850384892045</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03089971020811032</v>
+        <v>0.0346768809395069</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2082,17 +2518,24 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3333052320.497835</v>
+        <v>3664484187.161911</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1144097733913098</v>
+        <v>0.08528929373202662</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04623288816415527</v>
+        <v>0.03516026868509384</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>168</v>
+      </c>
+      <c r="J59" t="n">
+        <v>349</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,23 +2547,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3556651566.631313</v>
+        <v>3712666841.915034</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1494963870521138</v>
+        <v>0.2044457614896065</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02998879379276783</v>
+        <v>0.02635390122104428</v>
       </c>
       <c r="H60" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>61</v>
+      </c>
+      <c r="J60" t="n">
+        <v>349</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2582,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3225793047.399642</v>
+        <v>2355958395.326778</v>
       </c>
       <c r="F61" t="n">
-        <v>0.128350602218882</v>
+        <v>0.1280813202492337</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02368371561986645</v>
+        <v>0.02442160945455705</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>11</v>
+      </c>
+      <c r="J61" t="n">
+        <v>314</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2617,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1929803758.944592</v>
+        <v>1685529570.478164</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1884201673167212</v>
+        <v>0.1375819789201479</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03546745812803983</v>
+        <v>0.04680016563346005</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2652,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4808497791.027513</v>
+        <v>4377358100.230108</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09730826938581139</v>
+        <v>0.10584928263248</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03870795182957625</v>
+        <v>0.03618626840611765</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>171</v>
+      </c>
+      <c r="J63" t="n">
+        <v>349</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2222,17 +2693,24 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4969659067.517615</v>
+        <v>4619165578.2187</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1247866322371864</v>
+        <v>0.1575768700166769</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03158560871343127</v>
+        <v>0.02964329201099112</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>172</v>
+      </c>
+      <c r="J64" t="n">
+        <v>349</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,22 +2722,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5326360286.789927</v>
+        <v>5204062279.510492</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1051614937459079</v>
+        <v>0.167624772274244</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02140539834427517</v>
+        <v>0.02575685963860757</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>269</v>
+      </c>
+      <c r="J65" t="n">
+        <v>348</v>
+      </c>
+      <c r="K65" t="n">
+        <v>61.63087149068287</v>
       </c>
     </row>
     <row r="66">
@@ -2278,17 +2765,24 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4219011487.33489</v>
+        <v>5265141577.993399</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1587242887861551</v>
+        <v>0.1592833504037424</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03761201566697812</v>
+        <v>0.03993702075269485</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>172</v>
+      </c>
+      <c r="J66" t="n">
+        <v>349</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2794,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3038964934.803871</v>
+        <v>2568321090.177989</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07915731042245842</v>
+        <v>0.07058359870991066</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04943356694313658</v>
+        <v>0.03882890545354423</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>10</v>
+      </c>
+      <c r="J67" t="n">
+        <v>312</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2334,16 +2835,25 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4974207252.521064</v>
+        <v>5715290573.858321</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1550461254412001</v>
+        <v>0.1193179651278411</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03491186386373362</v>
+        <v>0.0464755637210169</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>190</v>
+      </c>
+      <c r="J68" t="n">
+        <v>348</v>
+      </c>
+      <c r="K68" t="n">
+        <v>64.30384869752599</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2866,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1507188605.003114</v>
+        <v>1859838434.422101</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1547988700614053</v>
+        <v>0.1169686081501546</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05923037088915657</v>
+        <v>0.05402232116880371</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2901,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3161724129.490596</v>
+        <v>2259257134.04413</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08213188514405972</v>
+        <v>0.07715378368661276</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03710312992981313</v>
+        <v>0.04595490133468534</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>50</v>
+      </c>
+      <c r="J70" t="n">
+        <v>332</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2936,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4006718723.39816</v>
+        <v>5216524484.916058</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1210781764349375</v>
+        <v>0.1538868387582686</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02109723793712804</v>
+        <v>0.02966826814743177</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>255</v>
+      </c>
+      <c r="J71" t="n">
+        <v>349</v>
+      </c>
+      <c r="K71" t="n">
+        <v>65.74951568965847</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2973,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2204673095.851431</v>
+        <v>1791180598.108087</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09700709672391693</v>
+        <v>0.0809939400148761</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03507315680307056</v>
+        <v>0.04440270706286666</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3008,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2315015736.433772</v>
+        <v>3328027678.001906</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09285694925148963</v>
+        <v>0.09177276049483207</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03212796905645467</v>
+        <v>0.04048248428062666</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>25</v>
+      </c>
+      <c r="J73" t="n">
+        <v>346</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,22 +3043,31 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2647129052.137559</v>
+        <v>3020113654.10833</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1113817972622653</v>
+        <v>0.1780376451232454</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03101927556310769</v>
+        <v>0.02792384899780822</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>95</v>
+      </c>
+      <c r="J74" t="n">
+        <v>348</v>
+      </c>
+      <c r="K74" t="n">
+        <v>43.89679772279847</v>
       </c>
     </row>
     <row r="75">
@@ -2524,23 +3080,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2266584980.254673</v>
+        <v>2320825105.285401</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1518086390960784</v>
+        <v>0.1118861439010397</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03770010624611485</v>
+        <v>0.02851767711800333</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,22 +3115,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4348634976.998998</v>
+        <v>4735463647.038108</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1050285872763104</v>
+        <v>0.07859393482088779</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02777004618029602</v>
+        <v>0.02700200276166927</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>165</v>
+      </c>
+      <c r="J76" t="n">
+        <v>348</v>
+      </c>
+      <c r="K76" t="n">
+        <v>63.46212215941765</v>
       </c>
     </row>
     <row r="77">
@@ -2586,17 +3158,24 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2207321703.366223</v>
+        <v>1757509663.239151</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1234835121392014</v>
+        <v>0.1865496687579247</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02734338440874533</v>
+        <v>0.02570701658335883</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2614,16 +3193,25 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4409000566.961994</v>
+        <v>3218455365.300333</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1267974045692096</v>
+        <v>0.09020704741457491</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04645827008250593</v>
+        <v>0.03928599038517943</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>174</v>
+      </c>
+      <c r="J78" t="n">
+        <v>348</v>
+      </c>
+      <c r="K78" t="n">
+        <v>39.89016190003173</v>
       </c>
     </row>
     <row r="79">
@@ -2636,23 +3224,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1290276054.751322</v>
+        <v>1862100269.502806</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1251393846332192</v>
+        <v>0.1116929208783108</v>
       </c>
       <c r="G79" t="n">
-        <v>0.04074268235855218</v>
+        <v>0.03097376145656891</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2670,17 +3265,24 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5086805596.768856</v>
+        <v>4771336998.701926</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1101266563634241</v>
+        <v>0.1039858458585643</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03829713592791446</v>
+        <v>0.02789152165932166</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>170</v>
+      </c>
+      <c r="J80" t="n">
+        <v>349</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,23 +3294,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3906629407.022354</v>
+        <v>3378830441.010653</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1185246673058546</v>
+        <v>0.1030563731400544</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02438245290490123</v>
+        <v>0.0224882159825124</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
       </c>
+      <c r="I81" t="n">
+        <v>161</v>
+      </c>
+      <c r="J81" t="n">
+        <v>347</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2726,16 +3335,25 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4653803343.016048</v>
+        <v>5570930771.679419</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1844873395992342</v>
+        <v>0.1627493332711466</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02337423670026416</v>
+        <v>0.02180751250222767</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>248</v>
+      </c>
+      <c r="J82" t="n">
+        <v>348</v>
+      </c>
+      <c r="K82" t="n">
+        <v>62.98641854062583</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3366,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2138805452.699103</v>
+        <v>2398949366.633919</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1191729202708527</v>
+        <v>0.1021570087220238</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04013010705046711</v>
+        <v>0.04210474526587875</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3401,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2575796312.746901</v>
+        <v>2546616049.444968</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1106461453534958</v>
+        <v>0.1127015903771681</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03706808487935395</v>
+        <v>0.03787458552140241</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3436,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3538942337.074273</v>
+        <v>3322386263.159763</v>
       </c>
       <c r="F85" t="n">
-        <v>0.14812965080949</v>
+        <v>0.152584008020015</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05461338066912651</v>
+        <v>0.03899185130231724</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>46</v>
+      </c>
+      <c r="J85" t="n">
+        <v>343</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3471,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2720528417.371845</v>
+        <v>2409787335.227827</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1442587612492099</v>
+        <v>0.1534661032245365</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01982275734189093</v>
+        <v>0.0181194119550135</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3506,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1035399748.950304</v>
+        <v>1325648708.550717</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1648988445621649</v>
+        <v>0.1600809847412163</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02873950935038727</v>
+        <v>0.03783453146260948</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3541,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2756734936.119967</v>
+        <v>2380521050.387612</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1759520299476694</v>
+        <v>0.1152645025356957</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02791405960931031</v>
+        <v>0.03557590388449839</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>46</v>
+      </c>
+      <c r="J88" t="n">
+        <v>331</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3576,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2921917403.880208</v>
+        <v>2383154465.790446</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1081454404779049</v>
+        <v>0.1020420686749364</v>
       </c>
       <c r="G89" t="n">
-        <v>0.04117666621612056</v>
+        <v>0.0283955695796493</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>26</v>
+      </c>
+      <c r="J89" t="n">
+        <v>333</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3611,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1808865214.452395</v>
+        <v>1524088791.370726</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1164922985418343</v>
+        <v>0.08639082965659989</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0558530936762734</v>
+        <v>0.03930401134254203</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3646,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1861518577.519036</v>
+        <v>1782777124.863379</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1557022123521377</v>
+        <v>0.1419096455630999</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05350877950427114</v>
+        <v>0.05437276030054056</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3006,17 +3687,24 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2915543911.084773</v>
+        <v>2277870967.933648</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0839674453057513</v>
+        <v>0.07928333637294731</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04036993004027059</v>
+        <v>0.03306357549563139</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3716,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3301657175.276704</v>
+        <v>4107465495.752664</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1315466147310365</v>
+        <v>0.1399519286133322</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05065553606193975</v>
+        <v>0.04440606231041185</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>161</v>
+      </c>
+      <c r="J93" t="n">
+        <v>349</v>
+      </c>
+      <c r="K93" t="n">
+        <v>65.0810505036017</v>
       </c>
     </row>
     <row r="94">
@@ -3062,17 +3759,24 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1888625750.153691</v>
+        <v>1850332517.727589</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1092417934667146</v>
+        <v>0.1636878359511394</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04140633314185114</v>
+        <v>0.03120896981725597</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3090,17 +3794,24 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2848599955.440619</v>
+        <v>2495462978.596803</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1147418027000181</v>
+        <v>0.1238789561084703</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04280522042000145</v>
+        <v>0.04659855624701976</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3823,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1467036948.950576</v>
+        <v>1654171987.40359</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1180311268809816</v>
+        <v>0.09450884635409175</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02961727230248437</v>
+        <v>0.03222004875621762</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3858,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3835846035.501142</v>
+        <v>3850343484.860088</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1399763719837296</v>
+        <v>0.1476821848941143</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02475641529474422</v>
+        <v>0.01840086453564373</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>179</v>
+      </c>
+      <c r="J97" t="n">
+        <v>349</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3168,23 +3893,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3945418298.366034</v>
+        <v>3266046249.899735</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08896589499933442</v>
+        <v>0.0862623033587441</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03037191367383532</v>
+        <v>0.02190309350616151</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>87</v>
+      </c>
+      <c r="J98" t="n">
+        <v>345</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,22 +3928,31 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2819386848.535787</v>
+        <v>2706671133.293338</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09310409465658141</v>
+        <v>0.102518154690935</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02180593834299022</v>
+        <v>0.03282665106841631</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
+      </c>
+      <c r="I99" t="n">
+        <v>7</v>
+      </c>
+      <c r="J99" t="n">
+        <v>348</v>
+      </c>
+      <c r="K99" t="n">
+        <v>42.08783661927982</v>
       </c>
     </row>
     <row r="100">
@@ -3224,23 +3965,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3106085059.36374</v>
+        <v>3804980124.633536</v>
       </c>
       <c r="F100" t="n">
-        <v>0.131164536623753</v>
+        <v>0.1211622554576587</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02576773068936392</v>
+        <v>0.02584711777345535</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>157</v>
+      </c>
+      <c r="J100" t="n">
+        <v>349</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3258,17 +4006,24 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3451643820.767381</v>
+        <v>3355710013.057257</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1466277841320076</v>
+        <v>0.1559721087047683</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03589392715057439</v>
+        <v>0.05502767380869959</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>32</v>
+      </c>
+      <c r="J101" t="n">
+        <v>341</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
